--- a/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
+++ b/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:39:13+00:00</t>
+    <t>2025-01-13T10:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
+++ b/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T10:33:06+00:00</t>
+    <t>2025-01-17T10:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
+++ b/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T10:40:26+00:00</t>
+    <t>2025-01-17T11:57:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
+++ b/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T11:57:47+00:00</t>
+    <t>2025-01-17T13:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
+++ b/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T13:37:06+00:00</t>
+    <t>2025-01-17T13:59:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
+++ b/maj-sp/ig/StructureDefinition-medication-lti-exemption.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T13:59:50+00:00</t>
+    <t>2025-01-17T15:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
